--- a/tmp/Kontakty (7).xlsx
+++ b/tmp/Kontakty (7).xlsx
@@ -876,9 +876,6 @@
     <t xml:space="preserve">Mikulíček Luděk </t>
   </si>
   <si>
-    <t xml:space="preserve">Mirnránková Milada </t>
-  </si>
-  <si>
     <t>Mistřice 352</t>
   </si>
   <si>
@@ -1423,6 +1420,9 @@
   </si>
   <si>
     <t>572587945,775 656 093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimránková Milada </t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" t="s">
         <v>411</v>
-      </c>
-      <c r="B7" t="s">
-        <v>412</v>
       </c>
       <c r="F7" s="7">
         <v>732509262</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F9" s="7">
         <v>608713925</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7">
         <v>605478867</v>
@@ -3716,29 +3716,29 @@
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
       <c r="F125" s="7">
         <v>733720802</v>
       </c>
       <c r="H125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H126" t="s">
         <v>238</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H126" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F127" s="7">
         <v>731006942</v>
@@ -3749,29 +3749,29 @@
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F128" s="7">
         <v>572587954</v>
       </c>
       <c r="H128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F129" s="7">
         <v>604861774</v>
       </c>
       <c r="H129" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F130" s="7">
         <v>604931388</v>
@@ -3782,18 +3782,18 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>245</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H131" t="s">
         <v>246</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H131" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F132" s="7">
         <v>776644554</v>
@@ -3801,95 +3801,95 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F133" s="7">
         <v>572587175</v>
       </c>
       <c r="H133" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F134" s="7">
         <v>572587694</v>
       </c>
       <c r="H134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F135" s="7">
         <v>572587697</v>
       </c>
       <c r="H135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F136" s="7">
         <v>605828047</v>
       </c>
       <c r="H136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F137" s="7">
         <v>572587915</v>
       </c>
       <c r="H137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F138" s="7">
         <v>608446382</v>
       </c>
       <c r="H138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F139" s="7">
         <v>572587573</v>
       </c>
       <c r="H139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H140" t="s">
         <v>263</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H140" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F141" s="7">
         <v>777587573</v>
@@ -3900,18 +3900,18 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H142" t="s">
         <v>267</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H142" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F143" s="7">
         <v>737432066</v>
@@ -3922,106 +3922,106 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F144" s="7">
         <v>604250396</v>
       </c>
       <c r="H144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F145" s="7">
         <v>572588090</v>
       </c>
       <c r="H145" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F146" s="7">
         <v>572587918</v>
       </c>
       <c r="H146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F147" s="7">
         <v>774139901</v>
       </c>
       <c r="H147" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F148" s="7">
         <v>572588128</v>
       </c>
       <c r="H148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F149" s="7">
         <v>572587955</v>
       </c>
       <c r="H149" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F150" s="7">
         <v>572587470</v>
       </c>
       <c r="H150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F151" s="7">
         <v>604534453</v>
       </c>
       <c r="H151" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F152" s="7">
         <v>572588080</v>
       </c>
       <c r="H152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F153" s="7">
         <v>739513031</v>
@@ -4032,84 +4032,84 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F154" s="7">
         <v>739513031</v>
       </c>
       <c r="H154" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F155" s="7">
         <v>572588180</v>
       </c>
       <c r="H155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H156" t="s">
         <v>293</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H156" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F157" s="7">
         <v>605175929</v>
       </c>
       <c r="H157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F158" s="7">
         <v>572587967</v>
       </c>
       <c r="H158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F159" s="7">
         <v>572588149</v>
       </c>
       <c r="H159" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F160" s="7">
         <v>605942852</v>
       </c>
       <c r="H160" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F161" s="7">
         <v>605327989</v>
@@ -4120,117 +4120,117 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F162" s="7">
         <v>572587957</v>
       </c>
       <c r="H162" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F163" s="7">
         <v>572587925</v>
       </c>
       <c r="H163" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F164" s="7">
         <v>572587946</v>
       </c>
       <c r="H164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F165" s="7">
         <v>731055164</v>
       </c>
       <c r="H165" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F166" s="7">
         <v>572587912</v>
       </c>
       <c r="H166" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F167" s="7">
         <v>572588269</v>
       </c>
       <c r="H167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F168" s="7">
         <v>572588029</v>
       </c>
       <c r="H168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F169" s="7">
         <v>572587913</v>
       </c>
       <c r="H169" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F170" s="7">
         <v>604403723</v>
       </c>
       <c r="H170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F171" s="7">
         <v>572587329</v>
       </c>
       <c r="H171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F172" s="7">
         <v>572587941</v>
@@ -4241,172 +4241,172 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F173" s="7">
         <v>731155645</v>
       </c>
       <c r="H173" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F174" s="7">
         <v>602781510</v>
       </c>
       <c r="H174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F175" s="7">
         <v>777262149</v>
       </c>
       <c r="H175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F176" s="7">
         <v>572588046</v>
       </c>
       <c r="H176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F177" s="7">
         <v>572587969</v>
       </c>
       <c r="H177" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F178" s="7">
         <v>572587471</v>
       </c>
       <c r="H178" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F179" s="7">
         <v>572587562</v>
       </c>
       <c r="H179" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F180" s="7">
         <v>572587362</v>
       </c>
       <c r="H180" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F181" s="7">
         <v>572588186</v>
       </c>
       <c r="H181" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F182" s="7">
         <v>602720989</v>
       </c>
       <c r="H182" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F183" s="7">
         <v>731340116</v>
       </c>
       <c r="H183" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F184" s="7">
         <v>572587574</v>
       </c>
       <c r="H184" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F185" s="7">
         <v>572587355</v>
       </c>
       <c r="H185" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F186" s="7">
         <v>572587440</v>
       </c>
       <c r="H186" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F187" s="7">
         <v>572587577</v>
       </c>
       <c r="H187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F188" s="7">
         <v>739204902</v>
@@ -4417,51 +4417,51 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
+        <v>353</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H189" t="s">
         <v>354</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H189" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F190" s="7">
         <v>602510568</v>
       </c>
       <c r="H190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F191" s="7">
         <v>572587558</v>
       </c>
       <c r="H191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F192" s="7">
         <v>572588048</v>
       </c>
       <c r="H192" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F193" s="7">
         <v>736280355</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F194" s="7">
         <v>605880767</v>
@@ -4483,40 +4483,40 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F195" s="7">
         <v>572587253</v>
       </c>
       <c r="H195" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F196" s="7">
         <v>603263687</v>
       </c>
       <c r="H196" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F197" s="7">
         <v>777209801</v>
       </c>
       <c r="H197" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F198" s="7">
         <v>728815350</v>
@@ -4524,62 +4524,62 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F199" s="7">
         <v>572587368</v>
       </c>
       <c r="H199" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F200" s="7">
         <v>572587635</v>
       </c>
       <c r="H200" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F201" s="7">
         <v>572588038</v>
       </c>
       <c r="H201" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F202" s="7">
         <v>572587637</v>
       </c>
       <c r="H202" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F203" s="7">
         <v>572587933</v>
       </c>
       <c r="H203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F204" s="7">
         <v>572587924</v>
@@ -4590,178 +4590,178 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F205" s="7">
         <v>572587639</v>
       </c>
       <c r="H205" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F206" s="7">
         <v>737749930</v>
       </c>
       <c r="H206" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F207" s="7">
         <v>732486368</v>
       </c>
       <c r="H207" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F208" s="7">
         <v>604373833</v>
       </c>
       <c r="H208" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F209" s="7">
         <v>572587466</v>
       </c>
       <c r="H209" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F210" s="7">
         <v>572588093</v>
       </c>
       <c r="H210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F211" s="7">
         <v>572587948</v>
       </c>
       <c r="H211" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F212" s="7">
         <v>572587510</v>
       </c>
       <c r="H212" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F213" s="7">
         <v>777234080</v>
       </c>
       <c r="H213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F214" s="7">
         <v>572588055</v>
       </c>
       <c r="H214" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F215" s="7">
         <v>739350160</v>
       </c>
       <c r="H215" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F216" s="7">
         <v>572588095</v>
       </c>
       <c r="H216" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F217" s="7">
         <v>572587572</v>
       </c>
       <c r="H217" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F218" s="7">
         <v>572587457</v>
       </c>
       <c r="H218" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F219" s="7">
         <v>572587942</v>
       </c>
       <c r="H219" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F220" s="7">
         <v>572588177</v>
       </c>
       <c r="H220" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
